--- a/example.xlsx
+++ b/example.xlsx
@@ -390,7 +390,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
